--- a/data/Consolidated_database.xlsx
+++ b/data/Consolidated_database.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="0" windowWidth="21924" windowHeight="9168"/>
+    <workbookView xWindow="4272" yWindow="0" windowWidth="21924" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Data dictionary" sheetId="2" r:id="rId1"/>
     <sheet name="Raw indicators" sheetId="1" r:id="rId2"/>
     <sheet name="Processed indicators" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data dictionary'!$A$1:$M$28</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="686">
   <si>
     <t>iso3c</t>
   </si>
@@ -2114,6 +2117,37 @@
   </si>
   <si>
     <t>http://www.who.int/vmnis/vitamina/data/database/countries/en/</t>
+  </si>
+  <si>
+    <t>Copyrigth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content on the FAO website is protected by copyright. To ensure wide dissemination of its information, FAO is committed to making its content freely available and encourages the use, reproduction and dissemination of the text, multimedia and data presented. The use of publications and documents available in the FAO Document Repository, is governed by an Open Access policy. Please consult this policy for detailed terms and conditions applicable to the use of FAO publications and documents. All other content on the FAO website (except where otherwise indicated), may be copied, printed and downloaded for private study, research and teaching purposes, and for use in non-commercial products or services, provided that appropriate acknowledgement of FAO as the source and copyright holder is given and that FAO's endorsement of users' views, products or services is not stated or implied in any way. FAO encourages unrestricted use of news releases provided on the FAO website; no formal permission is required to reproduce these materials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users do not obtain title to the intellectual property of the data provided by GEMStat, nor any copyright or propriety rights to its content. As the data provided are the intellectual property of the organizations which supplied the information, the original source of the data must be fully acknowledged. Please refer to the respective organizations for further inquiries regarding copyright and user limitations.
+Users are not allowed to transfer, sublicense, rent, lease or sell the data herein. The overall conditions for requesting data from GEMStat are summarized within a user declaration. Users are required to submit a scan of the signed user declaration with their data request in order to proceed.
+Download User declaration (PDF-File, 16KB)
+Please keep in mind that if you publish any reports or other products based on the data from GEMStat, you are requested to acknowledge the originators of the data and the fact that they were acquired through UN Environment GEMS/Water Programme.
+Please cite the data acquired from GEMStat as follows:
+United Nations Environment Programme (2018). GEMStat database of the Global Environment Monitoring System for Freshwater (GEMS/Water) Programme. International Centre for Water Resources and Global Change, Koblenz. Accessed DD MONTH YYYY. Available upon request from GEMS/Water Data Centre: gemstat.org </t>
+  </si>
+  <si>
+    <t>The World Bank Group and its officers, agents, employees, and content providers - including Global Environment Facility (GEF) Secretariat staff - (referred to below as “The World Bank Group” or “we” or “us” or “our”) maintain this web site and/or any related site (such as a related mobile application) that links to these World Bank Group Terms and Conditions (the "Site") as part of efforts to provide broad public access to information. We encourage you to use the World Bank Group information and data it contains (the "Materials") as well as communications tools designed to facilitate this use. Your access to and use of the Site, the Materials, those communications tools, and any new tools made available by us that alter or improve your use of the Site or the Materials are subject to these World Bank Group Terms and Conditions, as well as any documents expressly incorporated by reference herein (collectively these “Terms and Conditions”).</t>
+  </si>
+  <si>
+    <t>Unless indicated otherwise in the data or indicator metadata, you are free to copy, distribute, adapt, display or include the data in other products for commercial or noncommercial purposes at no cost under a Creative Commons Attribution 4.0 International License, with the additional terms below.  The basic terms may be accessed here.  When you download or use the Datasets, you are agreeing to comply with the terms of a CC BY 4.0 license, and also agreeing to the following mandatory and binding addition</t>
+  </si>
+  <si>
+    <t>For non-commercial purposes, any required permission is hereby granted and no further permission must be obtained from the ILO, but acknowledgement to the ILO as the original source must be made.
+For the re-use of ILO data for commercial purposes, please submit a formal request using the online form at form for reproduction of extracts .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All rights reserved. None of the materials provided on this web site may be used, reproduced or transmitted, in whole or in part, in any form or by any means, electronic or mechanical, including photocopying, recording or the use of any information storage and retrieval system, without permission in writing from the editor (unless for personal, non-commercial use as specified on the terms and conditions below).
+To request such permission and for further enquiries contact our Web Editor at digital@fairtrade.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information in the various pages of the WHO web site is issued by the World Health Organization for general distribution. The information presented is protected under the Berne Convention for the Protection of Literature and Artistic works, under other international conventions and under national laws on copyright and neighbouring rights. Extracts of the information in the web site may be reviewed, reproduced or translated for research or private study but not for sale or for use in conjunction with commercial purposes. </t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2688,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2704,6 +2738,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3026,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3042,10 +3077,11 @@
     <col min="8" max="10" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="13"/>
     <col min="12" max="12" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="13"/>
+    <col min="13" max="13" width="12.5546875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>530</v>
       </c>
@@ -3082,8 +3118,11 @@
       <c r="L1" s="18" t="s">
         <v>542</v>
       </c>
+      <c r="M1" s="23" t="s">
+        <v>678</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3120,8 +3159,11 @@
       <c r="L2" s="7">
         <v>39339</v>
       </c>
+      <c r="M2" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3158,8 +3200,11 @@
       <c r="L3" s="7">
         <v>43111</v>
       </c>
+      <c r="M3" s="13" t="s">
+        <v>680</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3241,11 @@
       <c r="L4" s="7">
         <v>42992</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3234,8 +3282,11 @@
       <c r="L5" s="7">
         <v>42992</v>
       </c>
+      <c r="M5" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3272,8 +3323,11 @@
       <c r="L6" s="7">
         <v>42992</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -3310,8 +3364,11 @@
       <c r="L7" s="7">
         <v>43063</v>
       </c>
+      <c r="M7" s="13" t="s">
+        <v>681</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3348,8 +3405,11 @@
       <c r="L8" s="7">
         <v>42992</v>
       </c>
+      <c r="M8" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3383,8 +3443,11 @@
       <c r="L9" s="7">
         <v>43041</v>
       </c>
+      <c r="M9" s="13" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -3418,8 +3481,11 @@
       <c r="L10" s="7">
         <v>43014</v>
       </c>
+      <c r="M10" s="13" t="s">
+        <v>683</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3452,7 +3518,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -3486,8 +3552,11 @@
       <c r="L12" s="7">
         <v>42990</v>
       </c>
+      <c r="M12" s="13" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -3521,8 +3590,11 @@
       <c r="L13" s="7">
         <v>43055</v>
       </c>
+      <c r="M13" s="13" t="s">
+        <v>684</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3556,8 +3628,11 @@
       <c r="L14" s="7">
         <v>43032</v>
       </c>
+      <c r="M14" s="13" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3594,8 +3669,11 @@
       <c r="L15" s="7">
         <v>42978</v>
       </c>
+      <c r="M15" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3711,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -3671,7 +3749,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -3708,8 +3786,11 @@
       <c r="L18" s="7">
         <v>42978</v>
       </c>
+      <c r="M18" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -3746,8 +3827,11 @@
       <c r="L19" s="7">
         <v>42978</v>
       </c>
+      <c r="M19" s="13" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -3784,8 +3868,11 @@
       <c r="L20" s="7">
         <v>43035</v>
       </c>
+      <c r="M20" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -3822,8 +3909,11 @@
       <c r="L21" s="7">
         <v>42978</v>
       </c>
+      <c r="M21" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -3860,8 +3950,11 @@
       <c r="L22" s="7">
         <v>43055</v>
       </c>
+      <c r="M22" s="13" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -3898,8 +3991,11 @@
       <c r="L23" s="7">
         <v>43035</v>
       </c>
+      <c r="M23" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -3936,8 +4032,11 @@
       <c r="L24" s="7">
         <v>42978</v>
       </c>
+      <c r="M24" s="13" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -3975,7 +4074,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -4012,8 +4111,11 @@
       <c r="L26" s="7">
         <v>42958</v>
       </c>
+      <c r="M26" s="13" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -4050,8 +4152,11 @@
       <c r="L27" s="7">
         <v>42958</v>
       </c>
+      <c r="M27" s="13" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
@@ -4088,23 +4193,27 @@
       <c r="L28" s="5">
         <v>43060</v>
       </c>
+      <c r="M28" s="14" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M28"/>
   <hyperlinks>
     <hyperlink ref="K20" r:id="rId1" location="data/CP , CIAT calculation"/>
   </hyperlinks>
